--- a/makerclan/applicants/Applicants_Nikhil.xlsx
+++ b/makerclan/applicants/Applicants_Nikhil.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
